--- a/data/rice/export_th/ex2560.xlsx
+++ b/data/rice/export_th/ex2560.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyayut.chi\Documents\github\price_transmission\data\rice\export_th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349CC084-B328-45AE-8472-D80E8C15C837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BD381A-EBBC-4F58-9648-E3D1A593BD9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ราคา FOB 2560 รวม" sheetId="21" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="214">
   <si>
     <t xml:space="preserve">                                                                                                                                                                                                                                               </t>
   </si>
@@ -687,18 +687,6 @@
     <t>RPXS00FU</t>
   </si>
   <si>
-    <t>RHXB00GO</t>
-  </si>
-  <si>
-    <t>RHXS00GO</t>
-  </si>
-  <si>
-    <t>RHXB00GN</t>
-  </si>
-  <si>
-    <t>RHXS00GN</t>
-  </si>
-  <si>
     <t>RWXB25GU</t>
   </si>
   <si>
@@ -727,18 +715,6 @@
   </si>
   <si>
     <t>RHXSA1EU</t>
-  </si>
-  <si>
-    <t>RHXB10FN</t>
-  </si>
-  <si>
-    <t>RHXS10FN</t>
-  </si>
-  <si>
-    <t>RHXB10FO</t>
-  </si>
-  <si>
-    <t>RHXS10FO</t>
   </si>
   <si>
     <t>RBXB05EU</t>
@@ -873,7 +849,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -925,6 +901,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,7 +1076,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1484,6 +1466,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5963,10 +5946,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D5" sqref="D5"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -6061,7 +6044,7 @@
     </row>
     <row r="6" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="32" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>72</v>
@@ -6101,7 +6084,7 @@
     </row>
     <row r="7" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="32" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>73</v>
@@ -6137,7 +6120,7 @@
     </row>
     <row r="8" spans="1:17" s="32" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="32" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="B8" s="73" t="s">
         <v>74</v>
@@ -6177,7 +6160,7 @@
     </row>
     <row r="9" spans="1:17" s="32" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="32" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="B9" s="74" t="s">
         <v>73</v>
@@ -6213,7 +6196,7 @@
     </row>
     <row r="10" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="B10" s="69" t="s">
         <v>75</v>
@@ -6253,7 +6236,7 @@
     </row>
     <row r="11" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="B11" s="70" t="s">
         <v>76</v>
@@ -6289,7 +6272,7 @@
     </row>
     <row r="12" spans="1:17" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="B12" s="93" t="s">
         <v>77</v>
@@ -6327,7 +6310,7 @@
     </row>
     <row r="13" spans="1:17" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="B13" s="98" t="s">
         <v>76</v>
@@ -6376,7 +6359,7 @@
     </row>
     <row r="15" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B15" s="69" t="s">
         <v>79</v>
@@ -6411,7 +6394,7 @@
     </row>
     <row r="16" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B16" s="70" t="s">
         <v>80</v>
@@ -6442,7 +6425,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B17" s="69" t="s">
         <v>81</v>
@@ -6477,7 +6460,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B18" s="70" t="s">
         <v>82</v>
@@ -6508,7 +6491,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B19" s="71" t="s">
         <v>69</v>
@@ -6543,7 +6526,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B20" s="70" t="s">
         <v>83</v>
@@ -7006,7 +6989,7 @@
     </row>
     <row r="35" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B35" s="93" t="s">
         <v>97</v>
@@ -7041,7 +7024,7 @@
     </row>
     <row r="36" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B36" s="98" t="s">
         <v>98</v>
@@ -11387,12 +11370,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:R394"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D5" sqref="D5"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -11488,7 +11471,7 @@
     </row>
     <row r="6" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="32" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>72</v>
@@ -11529,7 +11512,7 @@
     </row>
     <row r="7" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="32" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>73</v>
@@ -11566,7 +11549,7 @@
     </row>
     <row r="8" spans="1:18" s="32" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="32" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="B8" s="73" t="s">
         <v>74</v>
@@ -11607,7 +11590,7 @@
     </row>
     <row r="9" spans="1:18" s="32" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="32" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="B9" s="74" t="s">
         <v>73</v>
@@ -11644,7 +11627,7 @@
     </row>
     <row r="10" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="B10" s="69" t="s">
         <v>75</v>
@@ -11685,7 +11668,7 @@
     </row>
     <row r="11" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="B11" s="70" t="s">
         <v>76</v>
@@ -11722,7 +11705,7 @@
     </row>
     <row r="12" spans="1:18" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="B12" s="93" t="s">
         <v>77</v>
@@ -11760,7 +11743,7 @@
     </row>
     <row r="13" spans="1:18" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="B13" s="98" t="s">
         <v>76</v>
@@ -11809,7 +11792,7 @@
     </row>
     <row r="15" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B15" s="69" t="s">
         <v>79</v>
@@ -11844,7 +11827,7 @@
     </row>
     <row r="16" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B16" s="70" t="s">
         <v>80</v>
@@ -11875,7 +11858,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B17" s="69" t="s">
         <v>81</v>
@@ -11910,7 +11893,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B18" s="70" t="s">
         <v>82</v>
@@ -11941,7 +11924,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B19" s="71" t="s">
         <v>69</v>
@@ -11976,7 +11959,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B20" s="70" t="s">
         <v>83</v>
@@ -12439,7 +12422,7 @@
     </row>
     <row r="35" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B35" s="93" t="s">
         <v>97</v>
@@ -12474,7 +12457,7 @@
     </row>
     <row r="36" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B36" s="98" t="s">
         <v>98</v>
@@ -16822,10 +16805,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D5" sqref="D5"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -16920,7 +16903,7 @@
     </row>
     <row r="6" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="32" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>72</v>
@@ -16955,7 +16938,7 @@
     </row>
     <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="32" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>73</v>
@@ -16986,7 +16969,7 @@
     </row>
     <row r="8" spans="1:12" s="32" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="32" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="B8" s="73" t="s">
         <v>74</v>
@@ -17021,7 +17004,7 @@
     </row>
     <row r="9" spans="1:12" s="32" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="32" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="B9" s="74" t="s">
         <v>73</v>
@@ -17052,7 +17035,7 @@
     </row>
     <row r="10" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="B10" s="69" t="s">
         <v>75</v>
@@ -17087,7 +17070,7 @@
     </row>
     <row r="11" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="B11" s="70" t="s">
         <v>76</v>
@@ -17118,7 +17101,7 @@
     </row>
     <row r="12" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="B12" s="93" t="s">
         <v>77</v>
@@ -17156,7 +17139,7 @@
     </row>
     <row r="13" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="B13" s="98" t="s">
         <v>76</v>
@@ -17205,7 +17188,7 @@
     </row>
     <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B15" s="69" t="s">
         <v>79</v>
@@ -17240,7 +17223,7 @@
     </row>
     <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B16" s="70" t="s">
         <v>80</v>
@@ -17271,7 +17254,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B17" s="69" t="s">
         <v>81</v>
@@ -17306,7 +17289,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B18" s="70" t="s">
         <v>82</v>
@@ -17337,7 +17320,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B19" s="71" t="s">
         <v>69</v>
@@ -17372,7 +17355,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B20" s="70" t="s">
         <v>83</v>
@@ -17835,7 +17818,7 @@
     </row>
     <row r="35" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B35" s="93" t="s">
         <v>97</v>
@@ -17870,7 +17853,7 @@
     </row>
     <row r="36" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B36" s="98" t="s">
         <v>98</v>
@@ -22217,10 +22200,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B5" sqref="B5"/>
-      <selection pane="topRight" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -22314,8 +22297,8 @@
       <c r="I5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A6" s="32" t="s">
-        <v>218</v>
+      <c r="A6" s="193" t="s">
+        <v>134</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>72</v>
@@ -22349,8 +22332,8 @@
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A7" s="32" t="s">
-        <v>219</v>
+      <c r="A7" s="193" t="s">
+        <v>135</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>73</v>
@@ -22380,8 +22363,8 @@
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" s="32" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="32" t="s">
-        <v>216</v>
+      <c r="A8" s="193" t="s">
+        <v>136</v>
       </c>
       <c r="B8" s="73" t="s">
         <v>74</v>
@@ -22415,8 +22398,8 @@
       <c r="L8" s="65"/>
     </row>
     <row r="9" spans="1:12" s="32" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="32" t="s">
-        <v>217</v>
+      <c r="A9" s="193" t="s">
+        <v>137</v>
       </c>
       <c r="B9" s="74" t="s">
         <v>73</v>
@@ -22446,8 +22429,8 @@
       <c r="L9" s="65"/>
     </row>
     <row r="10" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A10" t="s">
-        <v>202</v>
+      <c r="A10" s="193" t="s">
+        <v>138</v>
       </c>
       <c r="B10" s="69" t="s">
         <v>75</v>
@@ -22481,8 +22464,8 @@
       <c r="L10" s="47"/>
     </row>
     <row r="11" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A11" t="s">
-        <v>203</v>
+      <c r="A11" s="193" t="s">
+        <v>139</v>
       </c>
       <c r="B11" s="70" t="s">
         <v>76</v>
@@ -22512,8 +22495,8 @@
       <c r="L11" s="47"/>
     </row>
     <row r="12" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A12" t="s">
-        <v>204</v>
+      <c r="A12" s="193" t="s">
+        <v>140</v>
       </c>
       <c r="B12" s="93" t="s">
         <v>77</v>
@@ -22550,8 +22533,8 @@
       <c r="L12" s="102"/>
     </row>
     <row r="13" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A13" t="s">
-        <v>205</v>
+      <c r="A13" s="193" t="s">
+        <v>141</v>
       </c>
       <c r="B13" s="98" t="s">
         <v>76</v>
@@ -22600,7 +22583,7 @@
     </row>
     <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B15" s="69" t="s">
         <v>79</v>
@@ -22635,7 +22618,7 @@
     </row>
     <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B16" s="70" t="s">
         <v>80</v>
@@ -22666,7 +22649,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B17" s="69" t="s">
         <v>81</v>
@@ -22701,7 +22684,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B18" s="70" t="s">
         <v>82</v>
@@ -22732,7 +22715,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B19" s="71" t="s">
         <v>69</v>
@@ -22767,7 +22750,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B20" s="70" t="s">
         <v>83</v>
@@ -23230,7 +23213,7 @@
     </row>
     <row r="35" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B35" s="93" t="s">
         <v>97</v>
@@ -23265,7 +23248,7 @@
     </row>
     <row r="36" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B36" s="98" t="s">
         <v>98</v>
@@ -27618,13 +27601,13 @@
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A6:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="23" style="64" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="64" customWidth="1"/>
     <col min="3" max="8" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -28663,7 +28646,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B37" s="58" t="s">
         <v>34</v>
@@ -28700,7 +28683,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B38" s="58" t="s">
         <v>35</v>
@@ -28733,7 +28716,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B39" s="58" t="s">
         <v>37</v>
@@ -28770,7 +28753,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B40" s="58" t="s">
         <v>36</v>
@@ -34751,12 +34734,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L394"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -34850,8 +34833,8 @@
       <c r="I5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A6" s="32" t="s">
-        <v>218</v>
+      <c r="A6" s="193" t="s">
+        <v>134</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>72</v>
@@ -34885,8 +34868,8 @@
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A7" s="32" t="s">
-        <v>219</v>
+      <c r="A7" s="193" t="s">
+        <v>135</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>73</v>
@@ -34916,8 +34899,8 @@
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" s="32" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="32" t="s">
-        <v>216</v>
+      <c r="A8" s="193" t="s">
+        <v>136</v>
       </c>
       <c r="B8" s="73" t="s">
         <v>74</v>
@@ -34951,8 +34934,8 @@
       <c r="L8" s="65"/>
     </row>
     <row r="9" spans="1:12" s="32" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="32" t="s">
-        <v>217</v>
+      <c r="A9" s="193" t="s">
+        <v>137</v>
       </c>
       <c r="B9" s="74" t="s">
         <v>73</v>
@@ -34982,8 +34965,8 @@
       <c r="L9" s="65"/>
     </row>
     <row r="10" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A10" t="s">
-        <v>202</v>
+      <c r="A10" s="193" t="s">
+        <v>138</v>
       </c>
       <c r="B10" s="69" t="s">
         <v>75</v>
@@ -35017,8 +35000,8 @@
       <c r="L10" s="47"/>
     </row>
     <row r="11" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A11" t="s">
-        <v>203</v>
+      <c r="A11" s="193" t="s">
+        <v>139</v>
       </c>
       <c r="B11" s="70" t="s">
         <v>76</v>
@@ -35048,8 +35031,8 @@
       <c r="L11" s="47"/>
     </row>
     <row r="12" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A12" t="s">
-        <v>204</v>
+      <c r="A12" s="193" t="s">
+        <v>140</v>
       </c>
       <c r="B12" s="93" t="s">
         <v>77</v>
@@ -35086,8 +35069,8 @@
       <c r="L12" s="102"/>
     </row>
     <row r="13" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A13" t="s">
-        <v>205</v>
+      <c r="A13" s="193" t="s">
+        <v>141</v>
       </c>
       <c r="B13" s="98" t="s">
         <v>76</v>
@@ -35136,7 +35119,7 @@
     </row>
     <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B15" s="69" t="s">
         <v>79</v>
@@ -35171,7 +35154,7 @@
     </row>
     <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B16" s="70" t="s">
         <v>80</v>
@@ -35202,7 +35185,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B17" s="69" t="s">
         <v>81</v>
@@ -35237,7 +35220,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B18" s="70" t="s">
         <v>82</v>
@@ -35268,7 +35251,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B19" s="71" t="s">
         <v>69</v>
@@ -35303,7 +35286,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B20" s="70" t="s">
         <v>83</v>
@@ -35766,7 +35749,7 @@
     </row>
     <row r="35" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B35" s="93" t="s">
         <v>97</v>
@@ -35801,7 +35784,7 @@
     </row>
     <row r="36" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B36" s="98" t="s">
         <v>98</v>
@@ -40152,7 +40135,7 @@
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -40247,7 +40230,7 @@
     </row>
     <row r="6" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="32" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>72</v>
@@ -40282,7 +40265,7 @@
     </row>
     <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="32" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>73</v>
@@ -40313,7 +40296,7 @@
     </row>
     <row r="8" spans="1:12" s="32" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="32" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="B8" s="73" t="s">
         <v>74</v>
@@ -40348,7 +40331,7 @@
     </row>
     <row r="9" spans="1:12" s="32" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="32" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="B9" s="74" t="s">
         <v>73</v>
@@ -40379,7 +40362,7 @@
     </row>
     <row r="10" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="B10" s="69" t="s">
         <v>75</v>
@@ -40414,7 +40397,7 @@
     </row>
     <row r="11" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="B11" s="70" t="s">
         <v>76</v>
@@ -40445,7 +40428,7 @@
     </row>
     <row r="12" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="B12" s="93" t="s">
         <v>77</v>
@@ -40483,7 +40466,7 @@
     </row>
     <row r="13" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="B13" s="98" t="s">
         <v>76</v>
@@ -40532,7 +40515,7 @@
     </row>
     <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B15" s="69" t="s">
         <v>79</v>
@@ -40567,7 +40550,7 @@
     </row>
     <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B16" s="70" t="s">
         <v>80</v>
@@ -40598,7 +40581,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B17" s="69" t="s">
         <v>81</v>
@@ -40633,7 +40616,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B18" s="70" t="s">
         <v>82</v>
@@ -40664,7 +40647,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B19" s="71" t="s">
         <v>69</v>
@@ -40699,7 +40682,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B20" s="70" t="s">
         <v>83</v>
@@ -41162,7 +41145,7 @@
     </row>
     <row r="35" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B35" s="93" t="s">
         <v>97</v>
@@ -41197,7 +41180,7 @@
     </row>
     <row r="36" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B36" s="98" t="s">
         <v>98</v>
@@ -45545,10 +45528,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D5" sqref="D5"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -45643,7 +45626,7 @@
     </row>
     <row r="6" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="32" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>72</v>
@@ -45678,7 +45661,7 @@
     </row>
     <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="32" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>73</v>
@@ -45709,7 +45692,7 @@
     </row>
     <row r="8" spans="1:12" s="32" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="32" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="B8" s="73" t="s">
         <v>74</v>
@@ -45744,7 +45727,7 @@
     </row>
     <row r="9" spans="1:12" s="32" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="32" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="B9" s="74" t="s">
         <v>73</v>
@@ -45775,7 +45758,7 @@
     </row>
     <row r="10" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="B10" s="69" t="s">
         <v>75</v>
@@ -45810,7 +45793,7 @@
     </row>
     <row r="11" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="B11" s="70" t="s">
         <v>76</v>
@@ -45841,7 +45824,7 @@
     </row>
     <row r="12" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="B12" s="93" t="s">
         <v>77</v>
@@ -45879,7 +45862,7 @@
     </row>
     <row r="13" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="B13" s="98" t="s">
         <v>76</v>
@@ -45928,7 +45911,7 @@
     </row>
     <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B15" s="69" t="s">
         <v>79</v>
@@ -45963,7 +45946,7 @@
     </row>
     <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B16" s="70" t="s">
         <v>80</v>
@@ -45994,7 +45977,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B17" s="69" t="s">
         <v>81</v>
@@ -46029,7 +46012,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B18" s="70" t="s">
         <v>82</v>
@@ -46060,7 +46043,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B19" s="71" t="s">
         <v>69</v>
@@ -46095,7 +46078,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B20" s="70" t="s">
         <v>83</v>
@@ -46558,7 +46541,7 @@
     </row>
     <row r="35" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B35" s="93" t="s">
         <v>97</v>
@@ -46593,7 +46576,7 @@
     </row>
     <row r="36" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B36" s="98" t="s">
         <v>98</v>
@@ -50940,10 +50923,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D5" sqref="D5"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -51038,7 +51021,7 @@
     </row>
     <row r="6" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="32" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>72</v>
@@ -51073,7 +51056,7 @@
     </row>
     <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="32" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>73</v>
@@ -51104,7 +51087,7 @@
     </row>
     <row r="8" spans="1:12" s="32" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="32" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="B8" s="73" t="s">
         <v>74</v>
@@ -51139,7 +51122,7 @@
     </row>
     <row r="9" spans="1:12" s="32" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="32" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="B9" s="74" t="s">
         <v>73</v>
@@ -51170,7 +51153,7 @@
     </row>
     <row r="10" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="B10" s="69" t="s">
         <v>75</v>
@@ -51205,7 +51188,7 @@
     </row>
     <row r="11" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="B11" s="70" t="s">
         <v>76</v>
@@ -51236,7 +51219,7 @@
     </row>
     <row r="12" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="B12" s="93" t="s">
         <v>77</v>
@@ -51274,7 +51257,7 @@
     </row>
     <row r="13" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="B13" s="98" t="s">
         <v>76</v>
@@ -51323,7 +51306,7 @@
     </row>
     <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B15" s="69" t="s">
         <v>79</v>
@@ -51358,7 +51341,7 @@
     </row>
     <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B16" s="70" t="s">
         <v>80</v>
@@ -51389,7 +51372,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B17" s="69" t="s">
         <v>81</v>
@@ -51424,7 +51407,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B18" s="70" t="s">
         <v>82</v>
@@ -51455,7 +51438,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B19" s="71" t="s">
         <v>69</v>
@@ -51490,7 +51473,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B20" s="70" t="s">
         <v>83</v>
@@ -51953,7 +51936,7 @@
     </row>
     <row r="35" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B35" s="93" t="s">
         <v>97</v>
@@ -51988,7 +51971,7 @@
     </row>
     <row r="36" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B36" s="98" t="s">
         <v>98</v>
@@ -56336,10 +56319,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D5" sqref="D5"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -56440,7 +56423,7 @@
     </row>
     <row r="6" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="32" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>72</v>
@@ -56481,7 +56464,7 @@
     </row>
     <row r="7" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="32" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>73</v>
@@ -56518,7 +56501,7 @@
     </row>
     <row r="8" spans="1:18" s="32" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="32" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="B8" s="73" t="s">
         <v>74</v>
@@ -56559,7 +56542,7 @@
     </row>
     <row r="9" spans="1:18" s="32" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="32" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="B9" s="74" t="s">
         <v>73</v>
@@ -56596,7 +56579,7 @@
     </row>
     <row r="10" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="B10" s="69" t="s">
         <v>75</v>
@@ -56637,7 +56620,7 @@
     </row>
     <row r="11" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="B11" s="70" t="s">
         <v>76</v>
@@ -56668,7 +56651,7 @@
     </row>
     <row r="12" spans="1:18" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="B12" s="93" t="s">
         <v>77</v>
@@ -56706,7 +56689,7 @@
     </row>
     <row r="13" spans="1:18" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="B13" s="98" t="s">
         <v>76</v>
@@ -56755,7 +56738,7 @@
     </row>
     <row r="15" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B15" s="69" t="s">
         <v>79</v>
@@ -56790,7 +56773,7 @@
     </row>
     <row r="16" spans="1:18" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B16" s="70" t="s">
         <v>80</v>
@@ -56821,7 +56804,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B17" s="69" t="s">
         <v>81</v>
@@ -56856,7 +56839,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B18" s="70" t="s">
         <v>82</v>
@@ -56887,7 +56870,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B19" s="71" t="s">
         <v>69</v>
@@ -56922,7 +56905,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B20" s="70" t="s">
         <v>83</v>
@@ -57385,7 +57368,7 @@
     </row>
     <row r="35" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B35" s="93" t="s">
         <v>97</v>
@@ -57420,7 +57403,7 @@
     </row>
     <row r="36" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B36" s="98" t="s">
         <v>98</v>
@@ -61768,10 +61751,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D5" sqref="D5"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -61876,7 +61859,7 @@
     </row>
     <row r="6" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="32" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>132</v>
@@ -61919,7 +61902,7 @@
     </row>
     <row r="7" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="32" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>73</v>
@@ -61957,7 +61940,7 @@
     </row>
     <row r="8" spans="1:17" s="32" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="32" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="B8" s="73" t="s">
         <v>133</v>
@@ -62000,7 +61983,7 @@
     </row>
     <row r="9" spans="1:17" s="32" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="32" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="B9" s="74" t="s">
         <v>73</v>
@@ -62038,7 +62021,7 @@
     </row>
     <row r="10" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="B10" s="69" t="s">
         <v>75</v>
@@ -62081,7 +62064,7 @@
     </row>
     <row r="11" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="B11" s="70" t="s">
         <v>76</v>
@@ -62114,7 +62097,7 @@
     </row>
     <row r="12" spans="1:17" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="B12" s="93" t="s">
         <v>77</v>
@@ -62155,7 +62138,7 @@
     </row>
     <row r="13" spans="1:17" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="B13" s="98" t="s">
         <v>76</v>
@@ -62206,7 +62189,7 @@
     </row>
     <row r="15" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B15" s="69" t="s">
         <v>79</v>
@@ -62244,7 +62227,7 @@
     </row>
     <row r="16" spans="1:17" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B16" s="70" t="s">
         <v>80</v>
@@ -62277,7 +62260,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B17" s="69" t="s">
         <v>81</v>
@@ -62315,7 +62298,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B18" s="70" t="s">
         <v>82</v>
@@ -62348,7 +62331,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B19" s="71" t="s">
         <v>69</v>
@@ -62386,7 +62369,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B20" s="70" t="s">
         <v>83</v>
@@ -62881,7 +62864,7 @@
     </row>
     <row r="35" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B35" s="93" t="s">
         <v>97</v>
@@ -62919,7 +62902,7 @@
     </row>
     <row r="36" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B36" s="98" t="s">
         <v>98</v>
@@ -67349,8 +67332,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D5" sqref="D5"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -67445,7 +67428,7 @@
     </row>
     <row r="6" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A6" s="32" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>72</v>
@@ -67480,7 +67463,7 @@
     </row>
     <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A7" s="32" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>73</v>
@@ -67511,7 +67494,7 @@
     </row>
     <row r="8" spans="1:12" s="32" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A8" s="32" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="B8" s="73" t="s">
         <v>74</v>
@@ -67546,7 +67529,7 @@
     </row>
     <row r="9" spans="1:12" s="32" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="32" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="B9" s="74" t="s">
         <v>73</v>
@@ -67577,7 +67560,7 @@
     </row>
     <row r="10" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="B10" s="69" t="s">
         <v>75</v>
@@ -67612,7 +67595,7 @@
     </row>
     <row r="11" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="B11" s="70" t="s">
         <v>76</v>
@@ -67643,7 +67626,7 @@
     </row>
     <row r="12" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="B12" s="93" t="s">
         <v>77</v>
@@ -67681,7 +67664,7 @@
     </row>
     <row r="13" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="B13" s="98" t="s">
         <v>76</v>
@@ -67730,7 +67713,7 @@
     </row>
     <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B15" s="69" t="s">
         <v>79</v>
@@ -67765,7 +67748,7 @@
     </row>
     <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B16" s="70" t="s">
         <v>80</v>
@@ -67796,7 +67779,7 @@
     </row>
     <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B17" s="69" t="s">
         <v>81</v>
@@ -67831,7 +67814,7 @@
     </row>
     <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B18" s="70" t="s">
         <v>82</v>
@@ -67862,7 +67845,7 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B19" s="71" t="s">
         <v>69</v>
@@ -67897,7 +67880,7 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B20" s="70" t="s">
         <v>83</v>
@@ -68360,7 +68343,7 @@
     </row>
     <row r="35" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B35" s="93" t="s">
         <v>97</v>
@@ -68395,7 +68378,7 @@
     </row>
     <row r="36" spans="1:12" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B36" s="98" t="s">
         <v>98</v>
